--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H2">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I2">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J2">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>442.844055</v>
+        <v>383.075592</v>
       </c>
       <c r="N2">
-        <v>885.6881100000001</v>
+        <v>766.1511840000001</v>
       </c>
       <c r="O2">
-        <v>0.5956080271087346</v>
+        <v>0.9621018533726157</v>
       </c>
       <c r="P2">
-        <v>0.4963061580695479</v>
+        <v>0.9473455908456537</v>
       </c>
       <c r="Q2">
-        <v>17934.18162855948</v>
+        <v>20309.51655414825</v>
       </c>
       <c r="R2">
-        <v>71736.72651423793</v>
+        <v>81238.06621659298</v>
       </c>
       <c r="S2">
-        <v>0.2583912865236112</v>
+        <v>0.7160367176424238</v>
       </c>
       <c r="T2">
-        <v>0.1761403448913211</v>
+        <v>0.6670832141858194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H3">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I3">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J3">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>2.568168333333333</v>
       </c>
       <c r="N3">
-        <v>7.704504999999999</v>
+        <v>7.704505</v>
       </c>
       <c r="O3">
-        <v>0.003454086505236687</v>
+        <v>0.006450005076994989</v>
       </c>
       <c r="P3">
-        <v>0.004317313547742694</v>
+        <v>0.009526616931258692</v>
       </c>
       <c r="Q3">
-        <v>104.0050031668933</v>
+        <v>136.1565664034075</v>
       </c>
       <c r="R3">
-        <v>624.03001900136</v>
+        <v>816.9393984204451</v>
       </c>
       <c r="S3">
-        <v>0.001498478555073294</v>
+        <v>0.004800365416529106</v>
       </c>
       <c r="T3">
-        <v>0.001532225794379138</v>
+        <v>0.006708266026918671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H4">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I4">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J4">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.891101666666666</v>
+        <v>3.820281</v>
       </c>
       <c r="N4">
-        <v>11.673305</v>
+        <v>11.460843</v>
       </c>
       <c r="O4">
-        <v>0.005233380375768716</v>
+        <v>0.009594710566953034</v>
       </c>
       <c r="P4">
-        <v>0.006541279137781406</v>
+        <v>0.0141713271612255</v>
       </c>
       <c r="Q4">
-        <v>157.5808080458267</v>
+        <v>202.5398167654545</v>
       </c>
       <c r="R4">
-        <v>945.48484827496</v>
+        <v>1215.238900592727</v>
       </c>
       <c r="S4">
-        <v>0.002270385600285788</v>
+        <v>0.007140787679606891</v>
       </c>
       <c r="T4">
-        <v>0.002321516960097368</v>
+        <v>0.00997888686382171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H5">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I5">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J5">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.143744</v>
+        <v>2.685739</v>
       </c>
       <c r="N5">
-        <v>6.287488</v>
+        <v>5.371478</v>
       </c>
       <c r="O5">
-        <v>0.004228213386707701</v>
+        <v>0.006745286109419144</v>
       </c>
       <c r="P5">
-        <v>0.003523270751809443</v>
+        <v>0.006641830105981315</v>
       </c>
       <c r="Q5">
-        <v>127.314514563584</v>
+        <v>142.3898097914355</v>
       </c>
       <c r="R5">
-        <v>509.258058254336</v>
+        <v>569.559239165742</v>
       </c>
       <c r="S5">
-        <v>0.001834316273390829</v>
+        <v>0.005020125996448882</v>
       </c>
       <c r="T5">
-        <v>0.001250417943196779</v>
+        <v>0.004676913491748146</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H6">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I6">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J6">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>285.0064136666667</v>
+        <v>4.974860333333333</v>
       </c>
       <c r="N6">
-        <v>855.019241</v>
+        <v>14.924581</v>
       </c>
       <c r="O6">
-        <v>0.3833225394825255</v>
+        <v>0.01249445917966475</v>
       </c>
       <c r="P6">
-        <v>0.479120482464477</v>
+        <v>0.01845423762416168</v>
       </c>
       <c r="Q6">
-        <v>11542.11449897946</v>
+        <v>263.7521429306015</v>
       </c>
       <c r="R6">
-        <v>69252.68699387675</v>
+        <v>1582.512857583609</v>
       </c>
       <c r="S6">
-        <v>0.1662959524088237</v>
+        <v>0.009298902718420895</v>
       </c>
       <c r="T6">
-        <v>0.1700411039710758</v>
+        <v>0.01299474264580215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H7">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I7">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J7">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.062445333333333</v>
+        <v>1.040679</v>
       </c>
       <c r="N7">
-        <v>18.187336</v>
+        <v>3.122037</v>
       </c>
       <c r="O7">
-        <v>0.008153753141026633</v>
+        <v>0.002613685694352357</v>
       </c>
       <c r="P7">
-        <v>0.01019149602864148</v>
+        <v>0.003860397331719051</v>
       </c>
       <c r="Q7">
-        <v>245.5153106237653</v>
+        <v>55.1736728192655</v>
       </c>
       <c r="R7">
-        <v>1473.091863742592</v>
+        <v>331.042036915593</v>
       </c>
       <c r="S7">
-        <v>0.003537324327768299</v>
+        <v>0.001945214967596786</v>
       </c>
       <c r="T7">
-        <v>0.003616988417846481</v>
+        <v>0.002718338782554244</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>19.394515</v>
       </c>
       <c r="I8">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J8">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>442.844055</v>
+        <v>383.075592</v>
       </c>
       <c r="N8">
-        <v>885.6881100000001</v>
+        <v>766.1511840000001</v>
       </c>
       <c r="O8">
-        <v>0.5956080271087346</v>
+        <v>0.9621018533726157</v>
       </c>
       <c r="P8">
-        <v>0.4963061580695479</v>
+        <v>0.9473455908456537</v>
       </c>
       <c r="Q8">
-        <v>2862.915222452775</v>
+        <v>2476.52177172596</v>
       </c>
       <c r="R8">
-        <v>17177.49133471665</v>
+        <v>14859.13063035576</v>
       </c>
       <c r="S8">
-        <v>0.0412481797529906</v>
+        <v>0.08731278836051179</v>
       </c>
       <c r="T8">
-        <v>0.04217713011290187</v>
+        <v>0.1220151719820244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>19.394515</v>
       </c>
       <c r="I9">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J9">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>2.568168333333333</v>
       </c>
       <c r="N9">
-        <v>7.704504999999999</v>
+        <v>7.704505</v>
       </c>
       <c r="O9">
-        <v>0.003454086505236687</v>
+        <v>0.006450005076994989</v>
       </c>
       <c r="P9">
-        <v>0.004317313547742694</v>
+        <v>0.009526616931258692</v>
       </c>
       <c r="Q9">
         <v>16.60279308778611</v>
@@ -1013,10 +1013,10 @@
         <v>149.425137790075</v>
       </c>
       <c r="S9">
-        <v>0.000239208967249818</v>
+        <v>0.000585351671694347</v>
       </c>
       <c r="T9">
-        <v>0.000366894289503901</v>
+        <v>0.00122699869457014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>19.394515</v>
       </c>
       <c r="I10">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J10">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.891101666666666</v>
+        <v>3.820281</v>
       </c>
       <c r="N10">
-        <v>11.673305</v>
+        <v>11.460843</v>
       </c>
       <c r="O10">
-        <v>0.005233380375768716</v>
+        <v>0.009594710566953034</v>
       </c>
       <c r="P10">
-        <v>0.006541279137781406</v>
+        <v>0.0141713271612255</v>
       </c>
       <c r="Q10">
-        <v>25.15534321356389</v>
+        <v>24.697499052905</v>
       </c>
       <c r="R10">
-        <v>226.398088922075</v>
+        <v>222.277491476145</v>
       </c>
       <c r="S10">
-        <v>0.0003624320100307724</v>
+        <v>0.0008707403796968727</v>
       </c>
       <c r="T10">
-        <v>0.0005558915133596949</v>
+        <v>0.001825222957175487</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>19.394515</v>
       </c>
       <c r="I11">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J11">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.143744</v>
+        <v>2.685739</v>
       </c>
       <c r="N11">
-        <v>6.287488</v>
+        <v>5.371478</v>
       </c>
       <c r="O11">
-        <v>0.004228213386707701</v>
+        <v>0.006745286109419144</v>
       </c>
       <c r="P11">
-        <v>0.003523270751809443</v>
+        <v>0.006641830105981315</v>
       </c>
       <c r="Q11">
-        <v>20.32379672138666</v>
+        <v>17.36286844052833</v>
       </c>
       <c r="R11">
-        <v>121.94278032832</v>
+        <v>104.17721064317</v>
       </c>
       <c r="S11">
-        <v>0.0002928202741919741</v>
+        <v>0.0006121490530740276</v>
       </c>
       <c r="T11">
-        <v>0.0002994148803231751</v>
+        <v>0.0008554471045073273</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>19.394515</v>
       </c>
       <c r="I12">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J12">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>285.0064136666667</v>
+        <v>4.974860333333333</v>
       </c>
       <c r="N12">
-        <v>855.019241</v>
+        <v>14.924581</v>
       </c>
       <c r="O12">
-        <v>0.3833225394825255</v>
+        <v>0.01249445917966475</v>
       </c>
       <c r="P12">
-        <v>0.479120482464477</v>
+        <v>0.01845423762416168</v>
       </c>
       <c r="Q12">
-        <v>1842.520388318124</v>
+        <v>32.16166778591278</v>
       </c>
       <c r="R12">
-        <v>16582.68349486311</v>
+        <v>289.455010073215</v>
       </c>
       <c r="S12">
-        <v>0.02654658146348574</v>
+        <v>0.001133898730377576</v>
       </c>
       <c r="T12">
-        <v>0.0407166556370409</v>
+        <v>0.002376848532645032</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>19.394515</v>
       </c>
       <c r="I13">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J13">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.062445333333333</v>
+        <v>1.040679</v>
       </c>
       <c r="N13">
-        <v>18.187336</v>
+        <v>3.122037</v>
       </c>
       <c r="O13">
-        <v>0.008153753141026633</v>
+        <v>0.002613685694352357</v>
       </c>
       <c r="P13">
-        <v>0.01019149602864148</v>
+        <v>0.003860397331719051</v>
       </c>
       <c r="Q13">
-        <v>39.19272898467111</v>
+        <v>6.727821491894999</v>
       </c>
       <c r="R13">
-        <v>352.7345608620399</v>
+        <v>60.55039342705499</v>
       </c>
       <c r="S13">
-        <v>0.0005646792184034452</v>
+        <v>0.0002371975327476072</v>
       </c>
       <c r="T13">
-        <v>0.000866094540750992</v>
+        <v>0.0004972071954524886</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H14">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I14">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J14">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>442.844055</v>
+        <v>383.075592</v>
       </c>
       <c r="N14">
-        <v>885.6881100000001</v>
+        <v>766.1511840000001</v>
       </c>
       <c r="O14">
-        <v>0.5956080271087346</v>
+        <v>0.9621018533726157</v>
       </c>
       <c r="P14">
-        <v>0.4963061580695479</v>
+        <v>0.9473455908456537</v>
       </c>
       <c r="Q14">
-        <v>338.457887658195</v>
+        <v>260.072445554216</v>
       </c>
       <c r="R14">
-        <v>2030.74732594917</v>
+        <v>1560.434673325296</v>
       </c>
       <c r="S14">
-        <v>0.004876418162666364</v>
+        <v>0.009169170510158834</v>
       </c>
       <c r="T14">
-        <v>0.004986239988366645</v>
+        <v>0.01281344849634326</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H15">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I15">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J15">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>2.568168333333333</v>
       </c>
       <c r="N15">
-        <v>7.704504999999999</v>
+        <v>7.704505</v>
       </c>
       <c r="O15">
-        <v>0.003454086505236687</v>
+        <v>0.006450005076994989</v>
       </c>
       <c r="P15">
-        <v>0.004317313547742694</v>
+        <v>0.009526616931258692</v>
       </c>
       <c r="Q15">
-        <v>1.962805686192778</v>
+        <v>1.743545746566111</v>
       </c>
       <c r="R15">
-        <v>17.665251175735</v>
+        <v>15.691911719095</v>
       </c>
       <c r="S15">
-        <v>2.827962250831451E-05</v>
+        <v>6.147082674774999E-05</v>
       </c>
       <c r="T15">
-        <v>4.3374761936875E-05</v>
+        <v>0.0001288535214315078</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H16">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I16">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J16">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.891101666666666</v>
+        <v>3.820281</v>
       </c>
       <c r="N16">
-        <v>11.673305</v>
+        <v>11.460843</v>
       </c>
       <c r="O16">
-        <v>0.005233380375768716</v>
+        <v>0.009594710566953034</v>
       </c>
       <c r="P16">
-        <v>0.006541279137781406</v>
+        <v>0.0141713271612255</v>
       </c>
       <c r="Q16">
-        <v>2.973900261037222</v>
+        <v>2.593612966013</v>
       </c>
       <c r="R16">
-        <v>26.765102349335</v>
+        <v>23.342516694117</v>
       </c>
       <c r="S16">
-        <v>4.28472249449407E-05</v>
+        <v>9.144098088536035E-05</v>
       </c>
       <c r="T16">
-        <v>6.571828110845961E-05</v>
+        <v>0.0001916761659734982</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H17">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I17">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J17">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.143744</v>
+        <v>2.685739</v>
       </c>
       <c r="N17">
-        <v>6.287488</v>
+        <v>5.371478</v>
       </c>
       <c r="O17">
-        <v>0.004228213386707701</v>
+        <v>0.006745286109419144</v>
       </c>
       <c r="P17">
-        <v>0.003523270751809443</v>
+        <v>0.006641830105981315</v>
       </c>
       <c r="Q17">
-        <v>2.402707999722667</v>
+        <v>1.823365216780333</v>
       </c>
       <c r="R17">
-        <v>14.416247998336</v>
+        <v>10.940191300682</v>
       </c>
       <c r="S17">
-        <v>3.461762705694085E-05</v>
+        <v>6.42849592901849E-05</v>
       </c>
       <c r="T17">
-        <v>3.539725072291579E-05</v>
+        <v>8.983495443144926E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H18">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I18">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J18">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>285.0064136666667</v>
+        <v>4.974860333333333</v>
       </c>
       <c r="N18">
-        <v>855.019241</v>
+        <v>14.924581</v>
       </c>
       <c r="O18">
-        <v>0.3833225394825255</v>
+        <v>0.01249445917966475</v>
       </c>
       <c r="P18">
-        <v>0.479120482464477</v>
+        <v>0.01845423762416168</v>
       </c>
       <c r="Q18">
-        <v>217.8253668521253</v>
+        <v>3.377464187748777</v>
       </c>
       <c r="R18">
-        <v>1960.428301669127</v>
+        <v>30.397177689739</v>
       </c>
       <c r="S18">
-        <v>0.003138374415076061</v>
+        <v>0.0001190766094556057</v>
       </c>
       <c r="T18">
-        <v>0.004813580629751367</v>
+        <v>0.0002496052397577489</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H19">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I19">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J19">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.062445333333333</v>
+        <v>1.040679</v>
       </c>
       <c r="N19">
-        <v>18.187336</v>
+        <v>3.122037</v>
       </c>
       <c r="O19">
-        <v>0.008153753141026633</v>
+        <v>0.002613685694352357</v>
       </c>
       <c r="P19">
-        <v>0.01019149602864148</v>
+        <v>0.003860397331719051</v>
       </c>
       <c r="Q19">
-        <v>4.633419865065778</v>
+        <v>0.7065235640669999</v>
       </c>
       <c r="R19">
-        <v>41.700778785592</v>
+        <v>6.358712076602998</v>
       </c>
       <c r="S19">
-        <v>6.675717603037169E-05</v>
+        <v>2.490934791100338E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001023909218393598</v>
+        <v>5.221431636288904E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H20">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I20">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J20">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>442.844055</v>
+        <v>383.075592</v>
       </c>
       <c r="N20">
-        <v>885.6881100000001</v>
+        <v>766.1511840000001</v>
       </c>
       <c r="O20">
-        <v>0.5956080271087346</v>
+        <v>0.9621018533726157</v>
       </c>
       <c r="P20">
-        <v>0.4963061580695479</v>
+        <v>0.9473455908456537</v>
       </c>
       <c r="Q20">
-        <v>5018.66664925644</v>
+        <v>3872.70365501298</v>
       </c>
       <c r="R20">
-        <v>20074.66659702576</v>
+        <v>15490.81462005192</v>
       </c>
       <c r="S20">
-        <v>0.07230771712880625</v>
+        <v>0.1365368794547167</v>
       </c>
       <c r="T20">
-        <v>0.04929077293869275</v>
+        <v>0.127202220441213</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H21">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I21">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J21">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>2.568168333333333</v>
       </c>
       <c r="N21">
-        <v>7.704504999999999</v>
+        <v>7.704505</v>
       </c>
       <c r="O21">
-        <v>0.003454086505236687</v>
+        <v>0.006450005076994989</v>
       </c>
       <c r="P21">
-        <v>0.004317313547742694</v>
+        <v>0.009526616931258692</v>
       </c>
       <c r="Q21">
-        <v>29.10455863334666</v>
+        <v>25.96290418625417</v>
       </c>
       <c r="R21">
-        <v>174.62735180008</v>
+        <v>155.777425117525</v>
       </c>
       <c r="S21">
-        <v>0.0004193313363681136</v>
+        <v>0.0009153537773499125</v>
       </c>
       <c r="T21">
-        <v>0.0004287750984486208</v>
+        <v>0.001279160254355787</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H22">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I22">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J22">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.891101666666666</v>
+        <v>3.820281</v>
       </c>
       <c r="N22">
-        <v>11.673305</v>
+        <v>11.460843</v>
       </c>
       <c r="O22">
-        <v>0.005233380375768716</v>
+        <v>0.009594710566953034</v>
       </c>
       <c r="P22">
-        <v>0.006541279137781406</v>
+        <v>0.0141713271612255</v>
       </c>
       <c r="Q22">
-        <v>44.09710809681333</v>
+        <v>38.6211403202025</v>
       </c>
       <c r="R22">
-        <v>264.58264858088</v>
+        <v>231.726841921215</v>
       </c>
       <c r="S22">
-        <v>0.0006353403087521629</v>
+        <v>0.00136163529411225</v>
       </c>
       <c r="T22">
-        <v>0.0006496488094427582</v>
+        <v>0.001902815930032072</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H23">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I23">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J23">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.143744</v>
+        <v>2.685739</v>
       </c>
       <c r="N23">
-        <v>6.287488</v>
+        <v>5.371478</v>
       </c>
       <c r="O23">
-        <v>0.004228213386707701</v>
+        <v>0.006745286109419144</v>
       </c>
       <c r="P23">
-        <v>0.003523270751809443</v>
+        <v>0.006641830105981315</v>
       </c>
       <c r="Q23">
-        <v>35.627447153152</v>
+        <v>27.1514851348475</v>
       </c>
       <c r="R23">
-        <v>142.509788612608</v>
+        <v>108.60594053939</v>
       </c>
       <c r="S23">
-        <v>0.0005133115129599782</v>
+        <v>0.0009572586448938549</v>
       </c>
       <c r="T23">
-        <v>0.0003499145352225123</v>
+        <v>0.0008918134474241391</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H24">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I24">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J24">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>285.0064136666667</v>
+        <v>4.974860333333333</v>
       </c>
       <c r="N24">
-        <v>855.019241</v>
+        <v>14.924581</v>
       </c>
       <c r="O24">
-        <v>0.3833225394825255</v>
+        <v>0.01249445917966475</v>
       </c>
       <c r="P24">
-        <v>0.479120482464477</v>
+        <v>0.01845423762416168</v>
       </c>
       <c r="Q24">
-        <v>3229.922964852909</v>
+        <v>50.29336297698416</v>
       </c>
       <c r="R24">
-        <v>19379.53778911745</v>
+        <v>301.760177861905</v>
       </c>
       <c r="S24">
-        <v>0.04653593721452323</v>
+        <v>0.001773153706008982</v>
       </c>
       <c r="T24">
-        <v>0.04758397317351862</v>
+        <v>0.002477891938302792</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H25">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I25">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J25">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.062445333333333</v>
+        <v>1.040679</v>
       </c>
       <c r="N25">
-        <v>18.187336</v>
+        <v>3.122037</v>
       </c>
       <c r="O25">
-        <v>0.008153753141026633</v>
+        <v>0.002613685694352357</v>
       </c>
       <c r="P25">
-        <v>0.01019149602864148</v>
+        <v>0.003860397331719051</v>
       </c>
       <c r="Q25">
-        <v>68.70452897316267</v>
+        <v>10.5207469521975</v>
       </c>
       <c r="R25">
-        <v>412.2271738389759</v>
+        <v>63.12448171318499</v>
       </c>
       <c r="S25">
-        <v>0.0009898779882492</v>
+        <v>0.0003709217348779952</v>
       </c>
       <c r="T25">
-        <v>0.001012171032911024</v>
+        <v>0.0005183442210795086</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H26">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I26">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J26">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>442.844055</v>
+        <v>383.075592</v>
       </c>
       <c r="N26">
-        <v>885.6881100000001</v>
+        <v>766.1511840000001</v>
       </c>
       <c r="O26">
-        <v>0.5956080271087346</v>
+        <v>0.9621018533726157</v>
       </c>
       <c r="P26">
-        <v>0.4963061580695479</v>
+        <v>0.9473455908456537</v>
       </c>
       <c r="Q26">
-        <v>14947.91677064169</v>
+        <v>202.604977544744</v>
       </c>
       <c r="R26">
-        <v>89687.50062385014</v>
+        <v>1215.629865268464</v>
       </c>
       <c r="S26">
-        <v>0.215365915502006</v>
+        <v>0.00714308500216487</v>
       </c>
       <c r="T26">
-        <v>0.220216171826437</v>
+        <v>0.009982097255017241</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H27">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I27">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J27">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>2.568168333333333</v>
       </c>
       <c r="N27">
-        <v>7.704504999999999</v>
+        <v>7.704505</v>
       </c>
       <c r="O27">
-        <v>0.003454086505236687</v>
+        <v>0.006450005076994989</v>
       </c>
       <c r="P27">
-        <v>0.004317313547742694</v>
+        <v>0.009526616931258692</v>
       </c>
       <c r="Q27">
-        <v>86.68687332759664</v>
+        <v>1.358279405872778</v>
       </c>
       <c r="R27">
-        <v>780.1818599483698</v>
+        <v>12.224514652855</v>
       </c>
       <c r="S27">
-        <v>0.0012489631915045</v>
+        <v>4.788779313527258E-05</v>
       </c>
       <c r="T27">
-        <v>0.001915636642020229</v>
+        <v>0.0001003811255766024</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H28">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I28">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J28">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.891101666666666</v>
+        <v>3.820281</v>
       </c>
       <c r="N28">
-        <v>11.673305</v>
+        <v>11.460843</v>
       </c>
       <c r="O28">
-        <v>0.005233380375768716</v>
+        <v>0.009594710566953034</v>
       </c>
       <c r="P28">
-        <v>0.006541279137781406</v>
+        <v>0.0141713271612255</v>
       </c>
       <c r="Q28">
-        <v>131.3416386710633</v>
+        <v>2.020509691517</v>
       </c>
       <c r="R28">
-        <v>1182.07474803957</v>
+        <v>18.184587223653</v>
       </c>
       <c r="S28">
-        <v>0.001892338088975921</v>
+        <v>7.123552762180527E-05</v>
       </c>
       <c r="T28">
-        <v>0.002902433159752372</v>
+        <v>0.0001493220291760112</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H29">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I29">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J29">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.143744</v>
+        <v>2.685739</v>
       </c>
       <c r="N29">
-        <v>6.287488</v>
+        <v>5.371478</v>
       </c>
       <c r="O29">
-        <v>0.004228213386707701</v>
+        <v>0.006745286109419144</v>
       </c>
       <c r="P29">
-        <v>0.003523270751809443</v>
+        <v>0.006641830105981315</v>
       </c>
       <c r="Q29">
-        <v>106.115060436352</v>
+        <v>1.420461394956333</v>
       </c>
       <c r="R29">
-        <v>636.6903626181119</v>
+        <v>8.522768369737999</v>
       </c>
       <c r="S29">
-        <v>0.001528879742246824</v>
+        <v>5.00800948201087E-05</v>
       </c>
       <c r="T29">
-        <v>0.001563311646765429</v>
+        <v>6.998438026193208E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H30">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I30">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J30">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>285.0064136666667</v>
+        <v>4.974860333333333</v>
       </c>
       <c r="N30">
-        <v>855.019241</v>
+        <v>14.924581</v>
       </c>
       <c r="O30">
-        <v>0.3833225394825255</v>
+        <v>0.01249445917966475</v>
       </c>
       <c r="P30">
-        <v>0.479120482464477</v>
+        <v>0.01845423762416168</v>
       </c>
       <c r="Q30">
-        <v>9620.208519200758</v>
+        <v>2.631155539983444</v>
       </c>
       <c r="R30">
-        <v>86581.87667280681</v>
+        <v>23.680399859851</v>
       </c>
       <c r="S30">
-        <v>0.1386056028306965</v>
+        <v>9.276459001047045E-05</v>
       </c>
       <c r="T30">
-        <v>0.2125907099407327</v>
+        <v>0.0001944506804186867</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H31">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I31">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J31">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.062445333333333</v>
+        <v>1.040679</v>
       </c>
       <c r="N31">
-        <v>18.187336</v>
+        <v>3.122037</v>
       </c>
       <c r="O31">
-        <v>0.008153753141026633</v>
+        <v>0.002613685694352357</v>
       </c>
       <c r="P31">
-        <v>0.01019149602864148</v>
+        <v>0.003860397331719051</v>
       </c>
       <c r="Q31">
-        <v>204.6339501367626</v>
+        <v>0.550405063203</v>
       </c>
       <c r="R31">
-        <v>1841.705551230864</v>
+        <v>4.953645568827</v>
       </c>
       <c r="S31">
-        <v>0.002948315721194895</v>
+        <v>1.940520020645934E-05</v>
       </c>
       <c r="T31">
-        <v>0.004522072120445586</v>
+        <v>4.067666750190946E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H32">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I32">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J32">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>442.844055</v>
+        <v>383.075592</v>
       </c>
       <c r="N32">
-        <v>885.6881100000001</v>
+        <v>766.1511840000001</v>
       </c>
       <c r="O32">
-        <v>0.5956080271087346</v>
+        <v>0.9621018533726157</v>
       </c>
       <c r="P32">
-        <v>0.4963061580695479</v>
+        <v>0.9473455908456537</v>
       </c>
       <c r="Q32">
-        <v>237.26875916412</v>
+        <v>167.437488972368</v>
       </c>
       <c r="R32">
-        <v>1423.61255498472</v>
+        <v>1004.624933834208</v>
       </c>
       <c r="S32">
-        <v>0.003418510038654174</v>
+        <v>0.005903212402639685</v>
       </c>
       <c r="T32">
-        <v>0.003495498311828528</v>
+        <v>0.008249438485236333</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H33">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I33">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J33">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>2.568168333333333</v>
       </c>
       <c r="N33">
-        <v>7.704504999999999</v>
+        <v>7.704505</v>
       </c>
       <c r="O33">
-        <v>0.003454086505236687</v>
+        <v>0.006450005076994989</v>
       </c>
       <c r="P33">
-        <v>0.004317313547742694</v>
+        <v>0.009526616931258692</v>
       </c>
       <c r="Q33">
-        <v>1.375983502306667</v>
+        <v>1.122513848367778</v>
       </c>
       <c r="R33">
-        <v>12.38385152076</v>
+        <v>10.10262463531</v>
       </c>
       <c r="S33">
-        <v>1.982483253264799E-05</v>
+        <v>3.957559153860114E-05</v>
       </c>
       <c r="T33">
-        <v>3.040696145393038E-05</v>
+        <v>8.295730840598133E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H34">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I34">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J34">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.891101666666666</v>
+        <v>3.820281</v>
       </c>
       <c r="N34">
-        <v>11.673305</v>
+        <v>11.460843</v>
       </c>
       <c r="O34">
-        <v>0.005233380375768716</v>
+        <v>0.009594710566953034</v>
       </c>
       <c r="P34">
-        <v>0.006541279137781406</v>
+        <v>0.0141713271612255</v>
       </c>
       <c r="Q34">
-        <v>2.084790015373333</v>
+        <v>1.669796434874</v>
       </c>
       <c r="R34">
-        <v>18.76311013836</v>
+        <v>15.028167913866</v>
       </c>
       <c r="S34">
-        <v>3.003714277913019E-05</v>
+        <v>5.88707050298541E-05</v>
       </c>
       <c r="T34">
-        <v>4.607041402075445E-05</v>
+        <v>0.0001234032150467204</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H35">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I35">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J35">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.143744</v>
+        <v>2.685739</v>
       </c>
       <c r="N35">
-        <v>6.287488</v>
+        <v>5.371478</v>
       </c>
       <c r="O35">
-        <v>0.004228213386707701</v>
+        <v>0.006745286109419144</v>
       </c>
       <c r="P35">
-        <v>0.003523270751809443</v>
+        <v>0.006641830105981315</v>
       </c>
       <c r="Q35">
-        <v>1.684367735296</v>
+        <v>1.173902497539334</v>
       </c>
       <c r="R35">
-        <v>10.106206411776</v>
+        <v>7.043414985236001</v>
       </c>
       <c r="S35">
-        <v>2.426795686115471E-05</v>
+        <v>4.138736089208499E-05</v>
       </c>
       <c r="T35">
-        <v>2.481449557863222E-05</v>
+        <v>5.783672760832056E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H36">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I36">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J36">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>285.0064136666667</v>
+        <v>4.974860333333333</v>
       </c>
       <c r="N36">
-        <v>855.019241</v>
+        <v>14.924581</v>
       </c>
       <c r="O36">
-        <v>0.3833225394825255</v>
+        <v>0.01249445917966475</v>
       </c>
       <c r="P36">
-        <v>0.479120482464477</v>
+        <v>0.01845423762416168</v>
       </c>
       <c r="Q36">
-        <v>152.7018763399813</v>
+        <v>2.174448436802444</v>
       </c>
       <c r="R36">
-        <v>1374.316887059832</v>
+        <v>19.570035931222</v>
       </c>
       <c r="S36">
-        <v>0.002200091149920312</v>
+        <v>7.666282539121816E-05</v>
       </c>
       <c r="T36">
-        <v>0.003374459112357745</v>
+        <v>0.0001606985872352668</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H37">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I37">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J37">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.062445333333333</v>
+        <v>1.040679</v>
       </c>
       <c r="N37">
-        <v>18.187336</v>
+        <v>3.122037</v>
       </c>
       <c r="O37">
-        <v>0.008153753141026633</v>
+        <v>0.002613685694352357</v>
       </c>
       <c r="P37">
-        <v>0.01019149602864148</v>
+        <v>0.003860397331719051</v>
       </c>
       <c r="Q37">
-        <v>3.248161210474667</v>
+        <v>0.454867608966</v>
       </c>
       <c r="R37">
-        <v>29.233450894272</v>
+        <v>4.093808480694</v>
       </c>
       <c r="S37">
-        <v>4.679870938042093E-05</v>
+        <v>1.603691101250498E-05</v>
       </c>
       <c r="T37">
-        <v>7.177899484803765E-05</v>
+        <v>3.361614876801102E-05</v>
       </c>
     </row>
   </sheetData>
